--- a/docs/Activity_Planner.xlsx
+++ b/docs/Activity_Planner.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e62c1948e3eea9/Documents/Lucas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uq-my.sharepoint.com/personal/uqibonac_uq_edu_au/Documents/Code learning/code-sandbox/Python/gamify_life/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{09327CE8-90AE-465E-8D55-627176F015E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{354F384A-8FFB-4783-9785-F1CC42091259}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{09327CE8-90AE-465E-8D55-627176F015E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{51F172DB-48DE-4BF7-85AE-194CBFFB2BA1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1650" windowWidth="21600" windowHeight="15750" xr2:uid="{1EB6A81A-4916-45AF-A177-E55382177A13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1EB6A81A-4916-45AF-A177-E55382177A13}"/>
   </bookViews>
   <sheets>
     <sheet name="Generic Activity List" sheetId="2" r:id="rId1"/>
@@ -497,14 +497,16 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
